--- a/Files/Excel/Ferrari.xlsx
+++ b/Files/Excel/Ferrari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9113D8E-B942-4170-B9BD-E041DFEF210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8165C3C-0BB5-4151-903D-BA4FD32446CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,219 +20,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Ferrari 125 S</t>
-  </si>
-  <si>
-    <t>Ferrari 159 S</t>
-  </si>
-  <si>
     <t>Ferrari 166</t>
   </si>
   <si>
-    <t>Ferrari 166 Inter</t>
-  </si>
-  <si>
-    <t>Ferrari 166 S</t>
-  </si>
-  <si>
-    <t>Ferrari 195 Inter</t>
-  </si>
-  <si>
-    <t>Ferrari 195 S</t>
-  </si>
-  <si>
-    <t>Ferrari 208 GT4</t>
-  </si>
-  <si>
-    <t>Ferrari 212 Export</t>
-  </si>
-  <si>
-    <t>Ferrari 212 Inter</t>
-  </si>
-  <si>
-    <t>Ferrari 250</t>
-  </si>
-  <si>
-    <t>Ferrari 250 GTE</t>
-  </si>
-  <si>
-    <t>Ferrari 250 GTO</t>
-  </si>
-  <si>
-    <t>Ferrari 250 TR 61 Spyder Fantuzzi</t>
-  </si>
-  <si>
-    <t>Ferrari 275</t>
-  </si>
-  <si>
-    <t>Ferrari 288 GTO</t>
-  </si>
-  <si>
-    <t>Ferrari 308 GT4</t>
-  </si>
-  <si>
-    <t>Ferrari 308 GTB/GTS</t>
-  </si>
-  <si>
-    <t>Ferrari 308 GTS</t>
-  </si>
-  <si>
-    <t>Ferrari 328</t>
-  </si>
-  <si>
-    <t>Ferrari 328 GTB</t>
-  </si>
-  <si>
-    <t>Ferrari 328 GTS</t>
-  </si>
-  <si>
-    <t>Ferrari 330</t>
-  </si>
-  <si>
-    <t>Ferrari 333 SP</t>
-  </si>
-  <si>
-    <t>Ferrari 348</t>
-  </si>
-  <si>
-    <t>Ferrari 360</t>
-  </si>
-  <si>
-    <t>Ferrari 365</t>
-  </si>
-  <si>
-    <t>Ferrari 365 GT4 BB</t>
-  </si>
-  <si>
-    <t>Ferrari 400</t>
-  </si>
-  <si>
-    <t>Ferrari 412</t>
-  </si>
-  <si>
-    <t>Ferrari 456</t>
-  </si>
-  <si>
-    <t>Ferrari 458</t>
-  </si>
-  <si>
-    <t>Ferrari 488 GTB</t>
-  </si>
-  <si>
-    <t>Ferrari 512BB</t>
-  </si>
-  <si>
-    <t>Ferrari 550</t>
-  </si>
-  <si>
-    <t>Ferrari 575M Maranello</t>
-  </si>
-  <si>
-    <t>Ferrari 599 GTB Fiorano</t>
-  </si>
-  <si>
-    <t>Ferrari 599 GTO</t>
-  </si>
-  <si>
-    <t>Ferrari 612 Scaglietti</t>
-  </si>
-  <si>
-    <t>Ferrari America</t>
-  </si>
-  <si>
-    <t>Ferrari Berlinetta Boxer</t>
-  </si>
-  <si>
-    <t>Ferrari California</t>
-  </si>
-  <si>
-    <t>Ferrari Daytona</t>
-  </si>
-  <si>
-    <t>Ferrari Dino 246 GT/GTS</t>
-  </si>
-  <si>
-    <t>Ferrari Enzo Ferrari</t>
-  </si>
-  <si>
-    <t>Ferrari F12 Berlinetta</t>
-  </si>
-  <si>
-    <t>Ferrari F40</t>
-  </si>
-  <si>
-    <t>Ferrari F50</t>
-  </si>
-  <si>
-    <t>Ferrari F355</t>
-  </si>
-  <si>
-    <t>Ferrari F355 Challenge</t>
-  </si>
-  <si>
-    <t>Ferrari F430</t>
-  </si>
-  <si>
-    <t>Ferrari 158</t>
-  </si>
-  <si>
-    <t>Ferrari 250 Europa GT</t>
-  </si>
-  <si>
-    <t>Ferrari 250 GT California Spyder</t>
-  </si>
-  <si>
-    <t>Ferrari 499P</t>
-  </si>
-  <si>
-    <t>Ferrari 555 F1</t>
-  </si>
-  <si>
-    <t>Ferrari 575 Maranello</t>
-  </si>
-  <si>
-    <t>Ferrari 1512</t>
-  </si>
-  <si>
-    <t>Ferrari Purosangue</t>
-  </si>
-  <si>
-    <t>Ferrari TR</t>
-  </si>
-  <si>
-    <t>Ferrari FF</t>
-  </si>
-  <si>
-    <t>Ferrari FXX</t>
-  </si>
-  <si>
-    <t>Ferrari GG50</t>
-  </si>
-  <si>
-    <t>Ferrari GT4</t>
-  </si>
-  <si>
-    <t>Ferrari LaFerrari</t>
-  </si>
-  <si>
-    <t>Ferrari Mondial</t>
-  </si>
-  <si>
-    <t>Ferrari P4/5 by Pininfarina</t>
-  </si>
-  <si>
-    <t>Ferrari SF90 Stradale</t>
-  </si>
-  <si>
-    <t>Ferrari Testarossa</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>GTE</t>
+  </si>
+  <si>
+    <t>GTO</t>
+  </si>
+  <si>
+    <t>Fantuzzi</t>
+  </si>
+  <si>
+    <t>GTS</t>
+  </si>
+  <si>
+    <t>GTB</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Maranello</t>
+  </si>
+  <si>
+    <t>Fiorano</t>
+  </si>
+  <si>
+    <t>Scaglietti</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Daytona</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Berlinetta</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Spyder</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Purosangue</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FXX</t>
+  </si>
+  <si>
+    <t>LaFerrari</t>
+  </si>
+  <si>
+    <t>Mondial</t>
+  </si>
+  <si>
+    <t>Pininfarina</t>
+  </si>
+  <si>
+    <t>Stradale</t>
+  </si>
+  <si>
+    <t>Testarossa</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrari </t>
+  </si>
+  <si>
+    <t>GG</t>
   </si>
 </sst>
 </file>
@@ -595,575 +499,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B70"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>208</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>250</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>250</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>328</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>328</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>333</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>365</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>488</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>575</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>599</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>599</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>612</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>355</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>555</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>575</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B69">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B70">
         <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
